--- a/Raw Input Data/Processing/Case 7/Suspect 1 Chan Tai Man Transaction Record.xlsx
+++ b/Raw Input Data/Processing/Case 7/Suspect 1 Chan Tai Man Transaction Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbap.adroot.hsbc\HK\HASE\28062201\Fraud_Ops_FIM_File_Sharing\HASE case\Gen AI\Gen AI 45 cases summary\Case 7 - C240840281660 (done)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\Case 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC9E655-FB61-4F4D-BCF6-6CE6BC68C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B491D377-DE2F-48F4-B5D2-8FE24C0AEFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AD34DB5D-19B0-483A-95E3-4A8AD4A75A0F}"/>
+    <workbookView xWindow="-27630" yWindow="6810" windowWidth="20520" windowHeight="20745" xr2:uid="{AD34DB5D-19B0-483A-95E3-4A8AD4A75A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tansaction Details" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Converted Amount</t>
   </si>
   <si>
-    <t>Fraud Payment</t>
-  </si>
-  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>CHAN TAI MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud payment </t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,10 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,31 +563,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A40307-C93C-4FE2-903E-66F6E8C3BAA5}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" customWidth="1"/>
-    <col min="10" max="10" width="15.296875" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.09765625" customWidth="1"/>
-    <col min="14" max="14" width="13.09765625" customWidth="1"/>
-    <col min="15" max="15" width="11.19921875" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,337 +636,337 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3">
+        <v>45528</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="14.4">
-      <c r="A2" s="4">
-        <v>45528</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="4">
+        <v>31000</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
-        <v>31000</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4">
         <v>31000</v>
       </c>
       <c r="Q2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:17">
+      <c r="A3" s="3">
         <v>45528</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5">
-        <v>50000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="4">
         <v>50000</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
         <v>45529</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>39000</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
-        <v>39000</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="4">
         <v>39000</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:17">
+      <c r="A5" s="3">
         <v>45529</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5">
-        <v>30000</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="4">
         <v>30000</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
         <v>45529</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>60000</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5">
-        <v>60000</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="4">
         <v>60000</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:17">
+      <c r="A7" s="3">
         <v>45529</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
-        <v>50000</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="4">
         <v>50000</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.4">
-      <c r="A8" s="4">
+    <row r="8" spans="1:17">
+      <c r="A8" s="3">
         <v>45529</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="4">
         <v>10000</v>
       </c>
       <c r="Q8">
@@ -1172,15 +1178,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
@@ -1191,14 +1188,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC681FC-B46A-49C9-B5F9-E99D06B248F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC681FC-B46A-49C9-B5F9-E99D06B248F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36412E0-A309-4F75-82F6-FA8114671832}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC51AAB6-6A4A-4167-AA53-7D8FF7B70BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC51AAB6-6A4A-4167-AA53-7D8FF7B70BB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36412E0-A309-4F75-82F6-FA8114671832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>